--- a/SchedulingData/static5/pso/scheduling1_20.xlsx
+++ b/SchedulingData/static5/pso/scheduling1_20.xlsx
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>65.90000000000001</v>
+        <v>38.74</v>
       </c>
       <c r="E2" t="n">
-        <v>25.58</v>
+        <v>27.316</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>54.64</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>25.736</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="4">
@@ -504,288 +504,288 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>38.72</v>
+        <v>71.52</v>
       </c>
       <c r="E4" t="n">
-        <v>26.828</v>
+        <v>25.528</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>68</v>
+        <v>78.8</v>
       </c>
       <c r="E5" t="n">
-        <v>24.9</v>
+        <v>26.26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>38.74</v>
       </c>
       <c r="D6" t="n">
-        <v>70.5</v>
+        <v>117.76</v>
       </c>
       <c r="E6" t="n">
-        <v>27.08</v>
+        <v>23.004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38.72</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>117.64</v>
+        <v>60.72</v>
       </c>
       <c r="E7" t="n">
-        <v>22.516</v>
+        <v>26.128</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>117.64</v>
+        <v>60.72</v>
       </c>
       <c r="D8" t="n">
-        <v>178.84</v>
+        <v>119.76</v>
       </c>
       <c r="E8" t="n">
-        <v>18.996</v>
+        <v>21.864</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>119.76</v>
       </c>
       <c r="D9" t="n">
-        <v>67.45999999999999</v>
+        <v>175.26</v>
       </c>
       <c r="E9" t="n">
-        <v>25.424</v>
+        <v>18.444</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>65.90000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>130.9</v>
+        <v>109.82</v>
       </c>
       <c r="E10" t="n">
-        <v>22.2</v>
+        <v>22.808</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>136.8</v>
+        <v>60.62</v>
       </c>
       <c r="E11" t="n">
-        <v>21.6</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>178.84</v>
+        <v>109.82</v>
       </c>
       <c r="D12" t="n">
-        <v>243.54</v>
+        <v>162.42</v>
       </c>
       <c r="E12" t="n">
-        <v>15.616</v>
+        <v>19.688</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>130.9</v>
+        <v>78.8</v>
       </c>
       <c r="D13" t="n">
-        <v>168.5</v>
+        <v>127.76</v>
       </c>
       <c r="E13" t="n">
-        <v>19.08</v>
+        <v>22.984</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>70.5</v>
+        <v>117.76</v>
       </c>
       <c r="D14" t="n">
-        <v>115.36</v>
+        <v>188.08</v>
       </c>
       <c r="E14" t="n">
-        <v>24.224</v>
+        <v>19.572</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>243.54</v>
+        <v>175.26</v>
       </c>
       <c r="D15" t="n">
-        <v>302.52</v>
+        <v>226.36</v>
       </c>
       <c r="E15" t="n">
-        <v>13.328</v>
+        <v>14.964</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>168.5</v>
+        <v>71.52</v>
       </c>
       <c r="D16" t="n">
-        <v>242.32</v>
+        <v>128.58</v>
       </c>
       <c r="E16" t="n">
-        <v>15.328</v>
+        <v>20.952</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>54.64</v>
+        <v>226.36</v>
       </c>
       <c r="D17" t="n">
-        <v>114.24</v>
+        <v>295.16</v>
       </c>
       <c r="E17" t="n">
-        <v>22.376</v>
+        <v>11.664</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>115.36</v>
+        <v>295.16</v>
       </c>
       <c r="D18" t="n">
-        <v>194.76</v>
+        <v>330.12</v>
       </c>
       <c r="E18" t="n">
-        <v>18.884</v>
+        <v>8.808</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>194.76</v>
+        <v>128.58</v>
       </c>
       <c r="D19" t="n">
-        <v>256.86</v>
+        <v>185.78</v>
       </c>
       <c r="E19" t="n">
-        <v>15.284</v>
+        <v>17.352</v>
       </c>
     </row>
     <row r="20">
@@ -808,74 +808,74 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>136.8</v>
+        <v>188.08</v>
       </c>
       <c r="D20" t="n">
-        <v>174.6</v>
+        <v>246.38</v>
       </c>
       <c r="E20" t="n">
-        <v>18.96</v>
+        <v>17.332</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>114.24</v>
+        <v>60.62</v>
       </c>
       <c r="D21" t="n">
-        <v>155.22</v>
+        <v>106.02</v>
       </c>
       <c r="E21" t="n">
-        <v>19.408</v>
+        <v>24.168</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>155.22</v>
+        <v>106.02</v>
       </c>
       <c r="D22" t="n">
-        <v>209.28</v>
+        <v>187.12</v>
       </c>
       <c r="E22" t="n">
-        <v>16.132</v>
+        <v>20.648</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>67.45999999999999</v>
+        <v>246.38</v>
       </c>
       <c r="D23" t="n">
-        <v>129.12</v>
+        <v>299.08</v>
       </c>
       <c r="E23" t="n">
-        <v>21.368</v>
+        <v>14.692</v>
       </c>
     </row>
     <row r="24">
@@ -884,226 +884,226 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>209.28</v>
+        <v>127.76</v>
       </c>
       <c r="D24" t="n">
-        <v>280.2</v>
+        <v>192.66</v>
       </c>
       <c r="E24" t="n">
-        <v>11.66</v>
+        <v>19.604</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>302.52</v>
+        <v>162.42</v>
       </c>
       <c r="D25" t="n">
-        <v>353.04</v>
+        <v>225.04</v>
       </c>
       <c r="E25" t="n">
-        <v>9.896000000000001</v>
+        <v>16.516</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>242.32</v>
+        <v>225.04</v>
       </c>
       <c r="D26" t="n">
-        <v>297.1</v>
+        <v>287</v>
       </c>
       <c r="E26" t="n">
-        <v>11.48</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>280.2</v>
+        <v>287</v>
       </c>
       <c r="D27" t="n">
-        <v>338.08</v>
+        <v>342.78</v>
       </c>
       <c r="E27" t="n">
-        <v>8.492000000000001</v>
+        <v>9.492000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>256.86</v>
+        <v>330.12</v>
       </c>
       <c r="D28" t="n">
-        <v>313.88</v>
+        <v>391.22</v>
       </c>
       <c r="E28" t="n">
-        <v>12.692</v>
+        <v>5.328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>313.88</v>
+        <v>192.66</v>
       </c>
       <c r="D29" t="n">
-        <v>362.7</v>
+        <v>237.54</v>
       </c>
       <c r="E29" t="n">
-        <v>9.92</v>
+        <v>15.756</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>297.1</v>
+        <v>185.78</v>
       </c>
       <c r="D30" t="n">
-        <v>347.42</v>
+        <v>225.98</v>
       </c>
       <c r="E30" t="n">
-        <v>8.568</v>
+        <v>13.972</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>129.12</v>
+        <v>299.08</v>
       </c>
       <c r="D31" t="n">
-        <v>227.32</v>
+        <v>358.88</v>
       </c>
       <c r="E31" t="n">
-        <v>17.628</v>
+        <v>11.332</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>174.6</v>
+        <v>391.22</v>
       </c>
       <c r="D32" t="n">
-        <v>269.12</v>
+        <v>435.2</v>
       </c>
       <c r="E32" t="n">
-        <v>15.088</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>227.32</v>
+        <v>225.98</v>
       </c>
       <c r="D33" t="n">
-        <v>273.42</v>
+        <v>263.24</v>
       </c>
       <c r="E33" t="n">
-        <v>14.148</v>
+        <v>11.376</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>353.04</v>
+        <v>358.88</v>
       </c>
       <c r="D34" t="n">
-        <v>402.92</v>
+        <v>433.48</v>
       </c>
       <c r="E34" t="n">
-        <v>6.048</v>
+        <v>5.992</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>273.42</v>
+        <v>263.24</v>
       </c>
       <c r="D35" t="n">
-        <v>302.22</v>
+        <v>335.16</v>
       </c>
       <c r="E35" t="n">
-        <v>11.908</v>
+        <v>8.784000000000001</v>
       </c>
     </row>
     <row r="36">
@@ -1112,112 +1112,112 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>338.08</v>
+        <v>237.54</v>
       </c>
       <c r="D36" t="n">
-        <v>385.68</v>
+        <v>295.32</v>
       </c>
       <c r="E36" t="n">
-        <v>5.372</v>
+        <v>12.588</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>269.12</v>
+        <v>295.32</v>
       </c>
       <c r="D37" t="n">
-        <v>339.62</v>
+        <v>342.92</v>
       </c>
       <c r="E37" t="n">
-        <v>11.668</v>
+        <v>9.468</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>402.92</v>
+        <v>342.78</v>
       </c>
       <c r="D38" t="n">
-        <v>441.06</v>
+        <v>414.88</v>
       </c>
       <c r="E38" t="n">
-        <v>3.364</v>
+        <v>4.392</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>362.7</v>
+        <v>342.92</v>
       </c>
       <c r="D39" t="n">
-        <v>414.96</v>
+        <v>406.64</v>
       </c>
       <c r="E39" t="n">
-        <v>7.324</v>
+        <v>5.716</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>302.22</v>
+        <v>187.12</v>
       </c>
       <c r="D40" t="n">
-        <v>387.72</v>
+        <v>247.8</v>
       </c>
       <c r="E40" t="n">
-        <v>8.428000000000001</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>387.72</v>
+        <v>335.16</v>
       </c>
       <c r="D41" t="n">
-        <v>428.6</v>
+        <v>395.04</v>
       </c>
       <c r="E41" t="n">
-        <v>5.48</v>
+        <v>4.936</v>
       </c>
     </row>
   </sheetData>
